--- a/TimeTable_n_marks_AllSems.xlsx
+++ b/TimeTable_n_marks_AllSems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITK_acads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IITK_Acads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02939B80-FF55-4BC6-9D33-765967380A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8696940-4736-480B-B8D6-D03AE600B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1BDFB028-954A-4FBF-BEA5-DA67CDBB5EF7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
   <si>
     <t>Monday</t>
   </si>
@@ -514,6 +514,27 @@
   </si>
   <si>
     <t>Weekly Quiz (20%)</t>
+  </si>
+  <si>
+    <t>EE381</t>
+  </si>
+  <si>
+    <t>DCMP Lab (20%)</t>
+  </si>
+  <si>
+    <t>Pre Lab</t>
+  </si>
+  <si>
+    <t>In Lab</t>
+  </si>
+  <si>
+    <t>Post Lab</t>
+  </si>
+  <si>
+    <t>EC Lab (20%)</t>
+  </si>
+  <si>
+    <t>Attrndance (5%)</t>
   </si>
 </sst>
 </file>
@@ -794,7 +815,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1514,11 +1535,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1817,6 +1853,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1844,19 +1919,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3040,10 +3112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4E2F29-248D-471C-A993-E27232C69752}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3052,52 +3124,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="112" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:2" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="123"/>
+      <c r="B3" s="114"/>
     </row>
     <row r="4" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124">
+      <c r="A4" s="115">
         <f>6/6</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
+      <c r="A5" s="115"/>
     </row>
     <row r="6" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
+      <c r="A6" s="115"/>
     </row>
     <row r="7" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
+      <c r="A7" s="115"/>
     </row>
     <row r="8" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
+      <c r="A8" s="115"/>
     </row>
     <row r="9" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
+      <c r="A9" s="115"/>
     </row>
     <row r="10" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
+      <c r="A10" s="115"/>
     </row>
     <row r="11" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
+      <c r="A11" s="115"/>
     </row>
     <row r="12" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
+      <c r="A12" s="115"/>
     </row>
     <row r="13" spans="1:2" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="125"/>
+      <c r="A13" s="116"/>
     </row>
     <row r="14" spans="1:2" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:4" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="134" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="115"/>
+    </row>
+    <row r="20" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" s="115"/>
+    </row>
+    <row r="21" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="137">
+        <v>2</v>
+      </c>
+      <c r="D21" s="115"/>
+    </row>
+    <row r="22" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="115"/>
+    </row>
+    <row r="23" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="115"/>
+    </row>
+    <row r="24" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="115"/>
+    </row>
+    <row r="25" spans="1:4" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="118"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="116"/>
+    </row>
+    <row r="26" spans="1:4" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="135" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3213,11 +3372,11 @@
         <v>16</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="125" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="125" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -3229,10 +3388,10 @@
         <v>19</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="113"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="115" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="128" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3240,24 +3399,24 @@
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="119" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="116"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="129"/>
     </row>
     <row r="12" spans="1:6" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="114"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="127"/>
       <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" ht="43.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
